--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB95F5-D1C1-4E48-A088-7A77712CB8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659AAD0-F9B1-472F-AA70-96140F3FD455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>每个月增长6000左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.2.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,16 +382,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,6 +459,14 @@
       </c>
       <c r="B8">
         <v>110338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>115244</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659AAD0-F9B1-472F-AA70-96140F3FD455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515CFE19-1563-4E9C-99A9-40C4A93F18F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19787" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -52,11 +61,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每个月增长6000左右</t>
+    <t>2023.2.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.2.20</t>
+    <t>2023.3.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：每个月增长6000左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -402,7 +415,7 @@
         <v>47292</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -412,6 +425,10 @@
       <c r="B2">
         <v>56866</v>
       </c>
+      <c r="C2">
+        <f>B2-B1</f>
+        <v>9574</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -420,6 +437,10 @@
       <c r="B3">
         <v>60946</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">B3-B2</f>
+        <v>4080</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -428,6 +449,10 @@
       <c r="B4">
         <v>65231</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4285</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -436,6 +461,10 @@
       <c r="B5">
         <v>71628</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6397</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -444,6 +473,10 @@
       <c r="B6">
         <v>78239</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6611</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -452,6 +485,10 @@
       <c r="B7">
         <v>91062</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>12823</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -460,13 +497,33 @@
       <c r="B8">
         <v>110338</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>19276</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>115244</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>121912</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6668</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515CFE19-1563-4E9C-99A9-40C4A93F18F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00033877-8B55-4B33-B243-AA55975DC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19787" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>目标：每个月增长6000左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.4.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -438,7 +442,7 @@
         <v>60946</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">B3-B2</f>
+        <f t="shared" ref="C3:C11" si="0">B3-B2</f>
         <v>4080</v>
       </c>
     </row>
@@ -524,6 +528,18 @@
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>130119</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>8207</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00033877-8B55-4B33-B243-AA55975DC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BCEA36-D265-45B1-B5DE-9618180121AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19787" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>2023.4.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.7.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -542,6 +546,14 @@
         <v>8207</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>158163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BCEA36-D265-45B1-B5DE-9618180121AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802952AF-AB5E-4E41-9C61-6829DF4472EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19787" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -69,15 +69,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标：每个月增长6000左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.4.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.7.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.9.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：每个月至少增长6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -423,7 +427,7 @@
         <v>47292</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,7 +540,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>130119</v>
@@ -548,10 +552,18 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>158163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>174578</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802952AF-AB5E-4E41-9C61-6829DF4472EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D520C-A76D-4F99-A002-AC5E2880ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19787" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>目标：每个月至少增长6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -450,7 +454,7 @@
         <v>60946</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">B3-B2</f>
+        <f t="shared" ref="C3:C17" si="0">B3-B2</f>
         <v>4080</v>
       </c>
     </row>
@@ -564,6 +568,18 @@
       </c>
       <c r="B16">
         <v>174578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>180477</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5899</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D520C-A76D-4F99-A002-AC5E2880ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA226E-507F-4FE4-9A8B-AC60010CCA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>2023.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -454,7 +458,7 @@
         <v>60946</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">B3-B2</f>
+        <f t="shared" ref="C3:C18" si="0">B3-B2</f>
         <v>4080</v>
       </c>
     </row>
@@ -580,6 +584,18 @@
       <c r="C17">
         <f t="shared" si="0"/>
         <v>5899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>187751</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7274</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA226E-507F-4FE4-9A8B-AC60010CCA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3AA16-9BD9-4641-BAD1-86DA993C289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="10795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>2023.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.2.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,19 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.0703125" customWidth="1"/>
+    <col min="4" max="4" width="22.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +462,7 @@
         <v>9574</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -458,11 +470,11 @@
         <v>60946</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C18" si="0">B3-B2</f>
+        <f t="shared" ref="C3:C21" si="0">B3-B2</f>
         <v>4080</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -474,7 +486,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -486,7 +498,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -498,7 +510,7 @@
         <v>6611</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -510,7 +522,7 @@
         <v>12823</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -522,7 +534,7 @@
         <v>19276</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -534,7 +546,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -546,7 +558,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -558,7 +570,7 @@
         <v>8207</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -566,7 +578,7 @@
         <v>158163</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -574,7 +586,7 @@
         <v>174578</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -586,7 +598,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -596,6 +608,42 @@
       <c r="C18">
         <f t="shared" si="0"/>
         <v>7274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>194606</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>199925</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>204904</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4979</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3AA16-9BD9-4641-BAD1-86DA993C289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DDE79-6330-463E-9DFA-96B450AB00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>2024.2.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.3.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -470,7 +474,7 @@
         <v>60946</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">B3-B2</f>
+        <f t="shared" ref="C3:C22" si="0">B3-B2</f>
         <v>4080</v>
       </c>
     </row>
@@ -644,6 +648,18 @@
       <c r="C21">
         <f t="shared" si="0"/>
         <v>4979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>211481</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6577</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DDE79-6330-463E-9DFA-96B450AB00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A73508-7312-49C7-9B18-9ADE6CA2F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -106,6 +106,22 @@
   </si>
   <si>
     <t>2024.3.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.6.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比上一时间的增长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +139,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -149,8 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,235 +457,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.0703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>47292</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>56866</v>
       </c>
-      <c r="C2">
-        <f>B2-B1</f>
+      <c r="C3">
+        <f>B3-B2</f>
         <v>9574</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>60946</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C22" si="0">B3-B2</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C21" si="0">B4-B3</f>
         <v>4080</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>65231</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>4285</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>71628</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>6397</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>78239</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>6611</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>91062</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>12823</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>110338</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>19276</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>115244</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>4906</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>121912</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>130119</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>8207</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>158163</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>28044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>158163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>174578</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>180477</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>174578</v>
+        <v>187751</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7274</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>180477</v>
+        <v>194606</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5899</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>187751</v>
+        <v>199925</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>7274</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>194606</v>
+        <v>204904</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>6855</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>199925</v>
+        <v>211481</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>5319</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>204904</v>
+        <v>236586</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>4979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>211481</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>6577</v>
+        <v>25105</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A73508-7312-49C7-9B18-9ADE6CA2F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648DF71C-984C-4D35-8816-38D89AFA1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>比上一时间的增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,15 +461,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.0703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.35546875" customWidth="1"/>
   </cols>
@@ -514,7 +519,7 @@
         <v>60946</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C21" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C24" si="0">B4-B3</f>
         <v>4080</v>
       </c>
     </row>
@@ -720,6 +725,18 @@
       <c r="C21">
         <f t="shared" si="0"/>
         <v>25105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>258834</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>22248</v>
       </c>
     </row>
   </sheetData>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648DF71C-984C-4D35-8816-38D89AFA1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30232ACE-1C00-40FA-9920-AE2CA2AAE5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -519,7 +519,7 @@
         <v>60946</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C24" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C23" si="0">B4-B3</f>
         <v>4080</v>
       </c>
     </row>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30232ACE-1C00-40FA-9920-AE2CA2AAE5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D8DB6-0CA9-467A-9E30-272BCB4BFF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>2024.9.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.4.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -739,6 +743,18 @@
         <v>22248</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>291721</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>32887</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/博客访问量记录.xlsx
+++ b/博客访问量记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzp\Desktop\HexoBlog\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D8DB6-0CA9-467A-9E30-272BCB4BFF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C4119F-F615-41AC-A227-692161A539C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22552" windowHeight="12175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>2022.4.18</t>
   </si>
@@ -130,6 +133,10 @@
   </si>
   <si>
     <t>2025.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.9.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,18 +472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.0703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.35546875" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="22.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -490,7 +497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="22.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +530,7 @@
         <v>60946</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C23" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C24" si="0">B4-B3</f>
         <v>4080</v>
       </c>
     </row>
@@ -753,6 +760,18 @@
       <c r="C23">
         <f t="shared" si="0"/>
         <v>32887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>312965</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>21244</v>
       </c>
     </row>
   </sheetData>
